--- a/target/classes/excel/laboratorios.xlsx
+++ b/target/classes/excel/laboratorios.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="1994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="1993">
   <si>
     <t>00276</t>
   </si>
@@ -6001,9 +6001,6 @@
   </si>
   <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -6493,8 +6490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6523,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6534,7 +6531,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6545,7 +6542,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6556,7 +6553,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6567,7 +6564,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6578,7 +6575,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6589,7 +6586,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6600,7 +6597,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6611,7 +6608,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6622,7 +6619,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6633,7 +6630,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6644,7 +6641,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6655,7 +6652,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6666,7 +6663,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6677,7 +6674,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6688,7 +6685,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6699,7 +6696,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6710,7 +6707,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6721,7 +6718,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6732,7 +6729,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6743,7 +6740,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -6754,7 +6751,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6765,7 +6762,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6776,7 +6773,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6787,7 +6784,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6798,7 +6795,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6809,7 +6806,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6820,7 +6817,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6831,7 +6828,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6842,7 +6839,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6853,7 +6850,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6864,7 +6861,7 @@
         <v>61</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6875,7 +6872,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6886,7 +6883,7 @@
         <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6897,7 +6894,7 @@
         <v>68</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6908,7 +6905,7 @@
         <v>70</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6919,7 +6916,7 @@
         <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6930,7 +6927,7 @@
         <v>74</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6941,7 +6938,7 @@
         <v>76</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6952,7 +6949,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6963,7 +6960,7 @@
         <v>80</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6974,7 +6971,7 @@
         <v>82</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6985,7 +6982,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6996,7 +6993,7 @@
         <v>86</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7007,7 +7004,7 @@
         <v>88</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7018,7 +7015,7 @@
         <v>90</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7029,7 +7026,7 @@
         <v>92</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7040,7 +7037,7 @@
         <v>94</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -7051,7 +7048,7 @@
         <v>96</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7062,7 +7059,7 @@
         <v>98</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7073,7 +7070,7 @@
         <v>100</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7084,7 +7081,7 @@
         <v>102</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7095,7 +7092,7 @@
         <v>104</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7106,7 +7103,7 @@
         <v>106</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7117,7 +7114,7 @@
         <v>108</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -7128,7 +7125,7 @@
         <v>110</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -7139,7 +7136,7 @@
         <v>112</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -7150,7 +7147,7 @@
         <v>114</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -7161,7 +7158,7 @@
         <v>116</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7172,7 +7169,7 @@
         <v>118</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7183,7 +7180,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7194,7 +7191,7 @@
         <v>122</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7205,7 +7202,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7216,7 +7213,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7227,7 +7224,7 @@
         <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7238,7 +7235,7 @@
         <v>130</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7249,7 +7246,7 @@
         <v>132</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7260,7 +7257,7 @@
         <v>134</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7271,7 +7268,7 @@
         <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7282,7 +7279,7 @@
         <v>138</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7293,7 +7290,7 @@
         <v>140</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7304,7 +7301,7 @@
         <v>142</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -7315,7 +7312,7 @@
         <v>144</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -7326,7 +7323,7 @@
         <v>146</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -7337,7 +7334,7 @@
         <v>148</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -7348,7 +7345,7 @@
         <v>150</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7359,7 +7356,7 @@
         <v>152</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7370,7 +7367,7 @@
         <v>154</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7381,7 +7378,7 @@
         <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7392,7 +7389,7 @@
         <v>158</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -7403,7 +7400,7 @@
         <v>160</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -7414,7 +7411,7 @@
         <v>162</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -7425,7 +7422,7 @@
         <v>164</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7447,7 +7444,7 @@
         <v>168</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7458,7 +7455,7 @@
         <v>170</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7469,7 +7466,7 @@
         <v>172</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7480,7 +7477,7 @@
         <v>174</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -7491,7 +7488,7 @@
         <v>176</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -7502,7 +7499,7 @@
         <v>178</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -7513,7 +7510,7 @@
         <v>180</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -7524,7 +7521,7 @@
         <v>182</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -7535,7 +7532,7 @@
         <v>184</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -7546,7 +7543,7 @@
         <v>186</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -7557,7 +7554,7 @@
         <v>188</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -7568,7 +7565,7 @@
         <v>190</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -7579,7 +7576,7 @@
         <v>190</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -7590,7 +7587,7 @@
         <v>193</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7601,7 +7598,7 @@
         <v>195</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -7612,7 +7609,7 @@
         <v>197</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -7623,7 +7620,7 @@
         <v>199</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -7634,7 +7631,7 @@
         <v>201</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -7645,7 +7642,7 @@
         <v>203</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -7656,7 +7653,7 @@
         <v>205</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -7667,7 +7664,7 @@
         <v>207</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -7678,7 +7675,7 @@
         <v>209</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -7689,7 +7686,7 @@
         <v>211</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -7700,7 +7697,7 @@
         <v>213</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -7711,7 +7708,7 @@
         <v>215</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -7722,7 +7719,7 @@
         <v>217</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -7733,7 +7730,7 @@
         <v>219</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -7744,7 +7741,7 @@
         <v>221</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -7755,7 +7752,7 @@
         <v>223</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -7766,7 +7763,7 @@
         <v>225</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -7777,7 +7774,7 @@
         <v>227</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -7788,7 +7785,7 @@
         <v>229</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -7799,7 +7796,7 @@
         <v>231</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -7810,7 +7807,7 @@
         <v>233</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -7821,7 +7818,7 @@
         <v>235</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -7832,7 +7829,7 @@
         <v>237</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -7843,7 +7840,7 @@
         <v>239</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -7854,7 +7851,7 @@
         <v>241</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -7865,7 +7862,7 @@
         <v>243</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -7876,7 +7873,7 @@
         <v>245</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -7887,7 +7884,7 @@
         <v>247</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -7898,7 +7895,7 @@
         <v>249</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -7909,7 +7906,7 @@
         <v>251</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -7920,7 +7917,7 @@
         <v>253</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -7931,7 +7928,7 @@
         <v>255</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -7942,7 +7939,7 @@
         <v>257</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -7953,7 +7950,7 @@
         <v>259</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -7964,7 +7961,7 @@
         <v>261</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -7975,7 +7972,7 @@
         <v>263</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -7986,7 +7983,7 @@
         <v>265</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -7997,7 +7994,7 @@
         <v>267</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -8008,7 +8005,7 @@
         <v>269</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -8019,7 +8016,7 @@
         <v>271</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -8030,7 +8027,7 @@
         <v>273</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -8041,7 +8038,7 @@
         <v>275</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -8052,7 +8049,7 @@
         <v>277</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -8063,7 +8060,7 @@
         <v>279</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -8074,7 +8071,7 @@
         <v>281</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -8085,7 +8082,7 @@
         <v>283</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -8096,7 +8093,7 @@
         <v>285</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -8107,7 +8104,7 @@
         <v>287</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -8118,7 +8115,7 @@
         <v>289</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -8129,7 +8126,7 @@
         <v>291</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -8140,7 +8137,7 @@
         <v>293</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -8151,7 +8148,7 @@
         <v>295</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -8162,7 +8159,7 @@
         <v>297</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -8173,7 +8170,7 @@
         <v>299</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -8184,7 +8181,7 @@
         <v>301</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -8195,7 +8192,7 @@
         <v>303</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -8206,7 +8203,7 @@
         <v>305</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -8217,7 +8214,7 @@
         <v>307</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -8228,7 +8225,7 @@
         <v>309</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -8239,7 +8236,7 @@
         <v>311</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -8250,7 +8247,7 @@
         <v>313</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -8261,7 +8258,7 @@
         <v>315</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -8272,7 +8269,7 @@
         <v>317</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -8283,7 +8280,7 @@
         <v>319</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -8294,7 +8291,7 @@
         <v>321</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -8305,7 +8302,7 @@
         <v>323</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -8316,7 +8313,7 @@
         <v>325</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -8327,7 +8324,7 @@
         <v>327</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -8338,7 +8335,7 @@
         <v>329</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -8349,7 +8346,7 @@
         <v>331</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -8360,7 +8357,7 @@
         <v>333</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -8371,7 +8368,7 @@
         <v>335</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -8382,7 +8379,7 @@
         <v>337</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -8393,7 +8390,7 @@
         <v>339</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -8404,7 +8401,7 @@
         <v>341</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -8415,7 +8412,7 @@
         <v>343</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -8426,7 +8423,7 @@
         <v>345</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -8437,7 +8434,7 @@
         <v>347</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -8448,7 +8445,7 @@
         <v>349</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -8459,7 +8456,7 @@
         <v>351</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -8470,7 +8467,7 @@
         <v>353</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -8481,7 +8478,7 @@
         <v>355</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -8492,7 +8489,7 @@
         <v>357</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -8503,7 +8500,7 @@
         <v>359</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -8514,7 +8511,7 @@
         <v>361</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -8525,7 +8522,7 @@
         <v>363</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -8536,7 +8533,7 @@
         <v>365</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -8547,7 +8544,7 @@
         <v>367</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -8558,7 +8555,7 @@
         <v>369</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -8569,7 +8566,7 @@
         <v>371</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -8580,7 +8577,7 @@
         <v>373</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -8591,7 +8588,7 @@
         <v>375</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -8602,7 +8599,7 @@
         <v>377</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -8613,7 +8610,7 @@
         <v>379</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -8624,7 +8621,7 @@
         <v>381</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -8635,7 +8632,7 @@
         <v>383</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -8646,7 +8643,7 @@
         <v>385</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -8657,7 +8654,7 @@
         <v>387</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -8668,7 +8665,7 @@
         <v>389</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -8679,7 +8676,7 @@
         <v>391</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -8690,7 +8687,7 @@
         <v>393</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -8701,7 +8698,7 @@
         <v>395</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -8712,7 +8709,7 @@
         <v>397</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -8723,7 +8720,7 @@
         <v>399</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -8734,7 +8731,7 @@
         <v>401</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -8745,7 +8742,7 @@
         <v>403</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -8756,7 +8753,7 @@
         <v>405</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -8767,7 +8764,7 @@
         <v>407</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -8778,7 +8775,7 @@
         <v>409</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -8789,7 +8786,7 @@
         <v>411</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -8800,7 +8797,7 @@
         <v>413</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -8811,7 +8808,7 @@
         <v>415</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -8822,7 +8819,7 @@
         <v>417</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -8833,7 +8830,7 @@
         <v>419</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -8844,7 +8841,7 @@
         <v>421</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -8855,7 +8852,7 @@
         <v>423</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -8866,7 +8863,7 @@
         <v>425</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -8877,7 +8874,7 @@
         <v>427</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -8888,7 +8885,7 @@
         <v>429</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -8899,7 +8896,7 @@
         <v>431</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -8910,7 +8907,7 @@
         <v>433</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -8921,7 +8918,7 @@
         <v>435</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -8932,7 +8929,7 @@
         <v>437</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -8943,7 +8940,7 @@
         <v>439</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -8954,7 +8951,7 @@
         <v>441</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -8965,7 +8962,7 @@
         <v>443</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -8976,7 +8973,7 @@
         <v>445</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -8987,7 +8984,7 @@
         <v>447</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -8998,7 +8995,7 @@
         <v>449</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -9009,7 +9006,7 @@
         <v>451</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -9020,7 +9017,7 @@
         <v>453</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -9031,7 +9028,7 @@
         <v>455</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -9042,7 +9039,7 @@
         <v>457</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -9053,7 +9050,7 @@
         <v>459</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -9064,7 +9061,7 @@
         <v>461</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -9075,7 +9072,7 @@
         <v>463</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -9086,7 +9083,7 @@
         <v>465</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -9097,7 +9094,7 @@
         <v>467</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -9108,7 +9105,7 @@
         <v>469</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -9119,7 +9116,7 @@
         <v>471</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -9130,7 +9127,7 @@
         <v>473</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -9141,7 +9138,7 @@
         <v>475</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -9152,7 +9149,7 @@
         <v>477</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -9163,7 +9160,7 @@
         <v>479</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -9174,7 +9171,7 @@
         <v>481</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -9185,7 +9182,7 @@
         <v>483</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -9196,7 +9193,7 @@
         <v>485</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -9207,7 +9204,7 @@
         <v>487</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -9218,7 +9215,7 @@
         <v>489</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -9229,7 +9226,7 @@
         <v>491</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -9240,7 +9237,7 @@
         <v>493</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -9251,7 +9248,7 @@
         <v>495</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -9262,7 +9259,7 @@
         <v>497</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -9273,7 +9270,7 @@
         <v>499</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -9284,7 +9281,7 @@
         <v>501</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -9295,7 +9292,7 @@
         <v>503</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -9306,7 +9303,7 @@
         <v>505</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -9317,7 +9314,7 @@
         <v>507</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -9328,7 +9325,7 @@
         <v>509</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -9339,7 +9336,7 @@
         <v>511</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -9350,7 +9347,7 @@
         <v>513</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -9361,7 +9358,7 @@
         <v>515</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -9372,7 +9369,7 @@
         <v>517</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -9383,7 +9380,7 @@
         <v>519</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -9394,7 +9391,7 @@
         <v>521</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -9405,7 +9402,7 @@
         <v>523</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -9416,7 +9413,7 @@
         <v>525</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -9427,7 +9424,7 @@
         <v>527</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -9438,7 +9435,7 @@
         <v>529</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -9449,7 +9446,7 @@
         <v>531</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -9460,7 +9457,7 @@
         <v>533</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -9471,7 +9468,7 @@
         <v>535</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -9482,7 +9479,7 @@
         <v>537</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -9493,7 +9490,7 @@
         <v>539</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -9504,7 +9501,7 @@
         <v>541</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -9515,7 +9512,7 @@
         <v>543</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -9526,7 +9523,7 @@
         <v>545</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -9537,7 +9534,7 @@
         <v>547</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -9548,7 +9545,7 @@
         <v>549</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -9559,7 +9556,7 @@
         <v>551</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -9570,7 +9567,7 @@
         <v>553</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -9581,7 +9578,7 @@
         <v>555</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -9592,7 +9589,7 @@
         <v>557</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -9603,7 +9600,7 @@
         <v>559</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -9614,7 +9611,7 @@
         <v>561</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -9625,7 +9622,7 @@
         <v>563</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -9636,7 +9633,7 @@
         <v>565</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -9647,7 +9644,7 @@
         <v>567</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -9658,7 +9655,7 @@
         <v>569</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -9669,7 +9666,7 @@
         <v>571</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -9680,7 +9677,7 @@
         <v>573</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -9691,7 +9688,7 @@
         <v>575</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -9702,7 +9699,7 @@
         <v>577</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -9713,7 +9710,7 @@
         <v>579</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -9724,7 +9721,7 @@
         <v>581</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -9735,7 +9732,7 @@
         <v>583</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -9746,7 +9743,7 @@
         <v>585</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -9757,7 +9754,7 @@
         <v>587</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -9768,7 +9765,7 @@
         <v>589</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -9779,7 +9776,7 @@
         <v>591</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -9790,7 +9787,7 @@
         <v>593</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -9801,7 +9798,7 @@
         <v>595</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -9812,7 +9809,7 @@
         <v>597</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -9823,7 +9820,7 @@
         <v>599</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -9834,7 +9831,7 @@
         <v>601</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -9845,7 +9842,7 @@
         <v>603</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -9856,7 +9853,7 @@
         <v>605</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -9867,7 +9864,7 @@
         <v>607</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -9878,7 +9875,7 @@
         <v>609</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -9889,7 +9886,7 @@
         <v>611</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -9900,7 +9897,7 @@
         <v>613</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -9911,7 +9908,7 @@
         <v>615</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -9922,7 +9919,7 @@
         <v>617</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -9933,7 +9930,7 @@
         <v>619</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -9944,7 +9941,7 @@
         <v>621</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -9955,7 +9952,7 @@
         <v>623</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -9966,7 +9963,7 @@
         <v>625</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -9977,7 +9974,7 @@
         <v>627</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -9988,7 +9985,7 @@
         <v>629</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -9999,7 +9996,7 @@
         <v>631</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -10010,7 +10007,7 @@
         <v>633</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -10021,7 +10018,7 @@
         <v>635</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -10032,7 +10029,7 @@
         <v>637</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -10043,7 +10040,7 @@
         <v>639</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -10054,7 +10051,7 @@
         <v>639</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -10065,7 +10062,7 @@
         <v>642</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -10076,7 +10073,7 @@
         <v>644</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -10087,7 +10084,7 @@
         <v>646</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -10098,7 +10095,7 @@
         <v>648</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -10109,7 +10106,7 @@
         <v>650</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -10120,7 +10117,7 @@
         <v>652</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -10131,7 +10128,7 @@
         <v>654</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -10142,7 +10139,7 @@
         <v>656</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -10153,7 +10150,7 @@
         <v>658</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -10164,7 +10161,7 @@
         <v>660</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -10175,7 +10172,7 @@
         <v>662</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -10186,7 +10183,7 @@
         <v>664</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -10197,7 +10194,7 @@
         <v>666</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -10208,7 +10205,7 @@
         <v>668</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -10219,7 +10216,7 @@
         <v>670</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -10230,7 +10227,7 @@
         <v>672</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -10241,7 +10238,7 @@
         <v>674</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -10252,7 +10249,7 @@
         <v>676</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -10263,7 +10260,7 @@
         <v>678</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -10274,7 +10271,7 @@
         <v>680</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -10285,7 +10282,7 @@
         <v>682</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -10296,7 +10293,7 @@
         <v>684</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -10307,7 +10304,7 @@
         <v>686</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -10318,7 +10315,7 @@
         <v>688</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -10329,7 +10326,7 @@
         <v>690</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -10340,7 +10337,7 @@
         <v>692</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -10351,7 +10348,7 @@
         <v>694</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -10362,7 +10359,7 @@
         <v>696</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -10373,7 +10370,7 @@
         <v>698</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -10384,7 +10381,7 @@
         <v>698</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -10395,7 +10392,7 @@
         <v>701</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -10406,7 +10403,7 @@
         <v>703</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -10417,7 +10414,7 @@
         <v>705</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -10428,7 +10425,7 @@
         <v>707</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -10439,7 +10436,7 @@
         <v>709</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -10450,7 +10447,7 @@
         <v>711</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -10461,7 +10458,7 @@
         <v>713</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -10472,7 +10469,7 @@
         <v>715</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -10483,7 +10480,7 @@
         <v>717</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -10494,7 +10491,7 @@
         <v>719</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -10505,7 +10502,7 @@
         <v>721</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -10516,7 +10513,7 @@
         <v>723</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -10527,7 +10524,7 @@
         <v>725</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -10538,7 +10535,7 @@
         <v>727</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -10549,7 +10546,7 @@
         <v>729</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -10560,7 +10557,7 @@
         <v>731</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -10571,7 +10568,7 @@
         <v>733</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -10582,7 +10579,7 @@
         <v>735</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -10593,7 +10590,7 @@
         <v>737</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -10604,7 +10601,7 @@
         <v>739</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -10615,7 +10612,7 @@
         <v>741</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -10626,7 +10623,7 @@
         <v>743</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -10637,7 +10634,7 @@
         <v>745</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -10648,7 +10645,7 @@
         <v>747</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -10659,7 +10656,7 @@
         <v>749</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -10670,7 +10667,7 @@
         <v>751</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -10681,7 +10678,7 @@
         <v>753</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -10692,7 +10689,7 @@
         <v>755</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -10703,7 +10700,7 @@
         <v>757</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -10714,7 +10711,7 @@
         <v>759</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -10725,7 +10722,7 @@
         <v>761</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -10736,7 +10733,7 @@
         <v>763</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -10747,7 +10744,7 @@
         <v>765</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -10758,7 +10755,7 @@
         <v>767</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -10769,7 +10766,7 @@
         <v>769</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -10780,7 +10777,7 @@
         <v>771</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -10791,7 +10788,7 @@
         <v>773</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -10802,7 +10799,7 @@
         <v>775</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -10813,7 +10810,7 @@
         <v>777</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -10824,7 +10821,7 @@
         <v>779</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -10835,7 +10832,7 @@
         <v>781</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -10846,7 +10843,7 @@
         <v>783</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -10857,7 +10854,7 @@
         <v>785</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -10868,7 +10865,7 @@
         <v>787</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -10879,7 +10876,7 @@
         <v>789</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -10890,7 +10887,7 @@
         <v>791</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -10901,7 +10898,7 @@
         <v>793</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -10912,7 +10909,7 @@
         <v>795</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -10923,7 +10920,7 @@
         <v>797</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -10934,7 +10931,7 @@
         <v>799</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -10945,7 +10942,7 @@
         <v>801</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -10956,7 +10953,7 @@
         <v>803</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -10967,7 +10964,7 @@
         <v>805</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -10978,7 +10975,7 @@
         <v>807</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -10989,7 +10986,7 @@
         <v>809</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -11000,7 +10997,7 @@
         <v>811</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -11011,7 +11008,7 @@
         <v>813</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -11022,7 +11019,7 @@
         <v>815</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -11033,7 +11030,7 @@
         <v>817</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -11044,7 +11041,7 @@
         <v>819</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -11055,7 +11052,7 @@
         <v>821</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -11066,7 +11063,7 @@
         <v>823</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -11077,7 +11074,7 @@
         <v>825</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -11088,7 +11085,7 @@
         <v>827</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -11099,7 +11096,7 @@
         <v>829</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -11110,7 +11107,7 @@
         <v>831</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -11121,7 +11118,7 @@
         <v>833</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -11132,7 +11129,7 @@
         <v>835</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -11143,7 +11140,7 @@
         <v>837</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -11154,7 +11151,7 @@
         <v>839</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -11165,7 +11162,7 @@
         <v>841</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -11176,7 +11173,7 @@
         <v>843</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -11187,7 +11184,7 @@
         <v>845</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -11198,7 +11195,7 @@
         <v>847</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -11209,7 +11206,7 @@
         <v>849</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -11220,7 +11217,7 @@
         <v>851</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -11231,7 +11228,7 @@
         <v>853</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -11242,7 +11239,7 @@
         <v>855</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -11253,7 +11250,7 @@
         <v>857</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -11264,7 +11261,7 @@
         <v>859</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -11275,7 +11272,7 @@
         <v>861</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -11286,7 +11283,7 @@
         <v>863</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -11297,7 +11294,7 @@
         <v>865</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -11308,7 +11305,7 @@
         <v>867</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -11319,7 +11316,7 @@
         <v>869</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -11330,7 +11327,7 @@
         <v>871</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -11341,7 +11338,7 @@
         <v>873</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -11352,7 +11349,7 @@
         <v>875</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -11363,7 +11360,7 @@
         <v>877</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -11374,7 +11371,7 @@
         <v>879</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -11385,7 +11382,7 @@
         <v>881</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -11396,7 +11393,7 @@
         <v>883</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -11407,7 +11404,7 @@
         <v>885</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -11418,7 +11415,7 @@
         <v>887</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -11429,7 +11426,7 @@
         <v>889</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -11440,7 +11437,7 @@
         <v>891</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -11451,7 +11448,7 @@
         <v>893</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -11462,7 +11459,7 @@
         <v>895</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -11473,7 +11470,7 @@
         <v>897</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -11484,7 +11481,7 @@
         <v>899</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -11495,7 +11492,7 @@
         <v>901</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -11506,7 +11503,7 @@
         <v>903</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -11517,7 +11514,7 @@
         <v>905</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -11528,7 +11525,7 @@
         <v>907</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -11539,7 +11536,7 @@
         <v>909</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -11550,7 +11547,7 @@
         <v>911</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -11561,7 +11558,7 @@
         <v>913</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -11572,7 +11569,7 @@
         <v>915</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -11583,7 +11580,7 @@
         <v>917</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -11594,7 +11591,7 @@
         <v>919</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -11605,7 +11602,7 @@
         <v>921</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -11616,7 +11613,7 @@
         <v>923</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -11627,7 +11624,7 @@
         <v>925</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -11638,7 +11635,7 @@
         <v>927</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -11649,7 +11646,7 @@
         <v>929</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -11660,7 +11657,7 @@
         <v>931</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -11671,7 +11668,7 @@
         <v>933</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -11682,7 +11679,7 @@
         <v>935</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -11693,7 +11690,7 @@
         <v>937</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -11704,7 +11701,7 @@
         <v>939</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -11715,7 +11712,7 @@
         <v>941</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -11726,7 +11723,7 @@
         <v>943</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -11737,7 +11734,7 @@
         <v>945</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -11748,7 +11745,7 @@
         <v>947</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -11759,7 +11756,7 @@
         <v>949</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -11770,7 +11767,7 @@
         <v>951</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -11781,7 +11778,7 @@
         <v>953</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -11792,7 +11789,7 @@
         <v>955</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -11803,7 +11800,7 @@
         <v>957</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -11814,7 +11811,7 @@
         <v>959</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -11825,7 +11822,7 @@
         <v>961</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -11836,7 +11833,7 @@
         <v>963</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -11847,7 +11844,7 @@
         <v>965</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -11858,7 +11855,7 @@
         <v>967</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -11869,7 +11866,7 @@
         <v>969</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -11880,7 +11877,7 @@
         <v>971</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -11891,7 +11888,7 @@
         <v>973</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -11902,7 +11899,7 @@
         <v>975</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -11913,7 +11910,7 @@
         <v>977</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -11924,7 +11921,7 @@
         <v>979</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -11935,7 +11932,7 @@
         <v>981</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -11946,7 +11943,7 @@
         <v>983</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -11957,7 +11954,7 @@
         <v>985</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -11968,7 +11965,7 @@
         <v>987</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -11979,7 +11976,7 @@
         <v>989</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -11990,7 +11987,7 @@
         <v>989</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -12001,7 +11998,7 @@
         <v>992</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -12012,7 +12009,7 @@
         <v>994</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -12023,7 +12020,7 @@
         <v>996</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -12034,7 +12031,7 @@
         <v>998</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -12045,7 +12042,7 @@
         <v>1000</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -12056,7 +12053,7 @@
         <v>1002</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -12067,7 +12064,7 @@
         <v>1004</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -12078,7 +12075,7 @@
         <v>1006</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -12089,7 +12086,7 @@
         <v>1008</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -12100,7 +12097,7 @@
         <v>1010</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -12111,7 +12108,7 @@
         <v>1012</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -12122,7 +12119,7 @@
         <v>1014</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -12133,7 +12130,7 @@
         <v>1016</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -12144,7 +12141,7 @@
         <v>1018</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -12155,7 +12152,7 @@
         <v>1020</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -12166,7 +12163,7 @@
         <v>1022</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -12177,7 +12174,7 @@
         <v>1024</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -12188,7 +12185,7 @@
         <v>1026</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -12199,7 +12196,7 @@
         <v>1028</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -12210,7 +12207,7 @@
         <v>1030</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -12221,7 +12218,7 @@
         <v>1032</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -12232,7 +12229,7 @@
         <v>1034</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -12243,7 +12240,7 @@
         <v>1036</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -12254,7 +12251,7 @@
         <v>1038</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -12265,7 +12262,7 @@
         <v>1040</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -12276,7 +12273,7 @@
         <v>1042</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -12287,7 +12284,7 @@
         <v>1044</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -12298,7 +12295,7 @@
         <v>1046</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -12309,7 +12306,7 @@
         <v>1048</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -12320,7 +12317,7 @@
         <v>1050</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -12331,7 +12328,7 @@
         <v>1052</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -12342,7 +12339,7 @@
         <v>1054</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -12353,7 +12350,7 @@
         <v>1056</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -12364,7 +12361,7 @@
         <v>1058</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -12375,7 +12372,7 @@
         <v>1060</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -12386,7 +12383,7 @@
         <v>1062</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -12397,7 +12394,7 @@
         <v>1064</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -12408,7 +12405,7 @@
         <v>1066</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -12419,7 +12416,7 @@
         <v>1068</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -12430,7 +12427,7 @@
         <v>1070</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -12441,7 +12438,7 @@
         <v>1072</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -12452,7 +12449,7 @@
         <v>1074</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -12463,7 +12460,7 @@
         <v>1076</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -12474,7 +12471,7 @@
         <v>1078</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -12485,7 +12482,7 @@
         <v>1080</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -12496,7 +12493,7 @@
         <v>1082</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -12507,7 +12504,7 @@
         <v>1084</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -12518,7 +12515,7 @@
         <v>1086</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -12529,7 +12526,7 @@
         <v>1088</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -12540,7 +12537,7 @@
         <v>1090</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -12551,7 +12548,7 @@
         <v>1092</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -12562,7 +12559,7 @@
         <v>1094</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -12573,7 +12570,7 @@
         <v>1096</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -12584,7 +12581,7 @@
         <v>1098</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -12595,7 +12592,7 @@
         <v>1100</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -12606,7 +12603,7 @@
         <v>1102</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -12617,7 +12614,7 @@
         <v>1104</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -12628,7 +12625,7 @@
         <v>1104</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -12639,7 +12636,7 @@
         <v>1107</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -12650,7 +12647,7 @@
         <v>1109</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -12661,7 +12658,7 @@
         <v>1111</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -12672,7 +12669,7 @@
         <v>1113</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -12683,7 +12680,7 @@
         <v>1115</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -12694,7 +12691,7 @@
         <v>1117</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -12705,7 +12702,7 @@
         <v>1119</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -12716,7 +12713,7 @@
         <v>1121</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -12727,7 +12724,7 @@
         <v>1123</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -12738,7 +12735,7 @@
         <v>1125</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -12749,7 +12746,7 @@
         <v>1127</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -12760,7 +12757,7 @@
         <v>1129</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -12771,7 +12768,7 @@
         <v>1131</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -12782,7 +12779,7 @@
         <v>1133</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -12793,7 +12790,7 @@
         <v>1135</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -12804,7 +12801,7 @@
         <v>1137</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -12815,7 +12812,7 @@
         <v>1139</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -12826,7 +12823,7 @@
         <v>1141</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -12837,7 +12834,7 @@
         <v>1143</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -12848,7 +12845,7 @@
         <v>1145</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -12859,7 +12856,7 @@
         <v>1147</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -12870,7 +12867,7 @@
         <v>1149</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -12881,7 +12878,7 @@
         <v>1151</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -12892,7 +12889,7 @@
         <v>1153</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -12903,7 +12900,7 @@
         <v>1155</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -12914,7 +12911,7 @@
         <v>1157</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -12925,7 +12922,7 @@
         <v>1159</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -12936,7 +12933,7 @@
         <v>1161</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -12947,7 +12944,7 @@
         <v>1163</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -12958,7 +12955,7 @@
         <v>1165</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -12969,7 +12966,7 @@
         <v>1167</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -12980,7 +12977,7 @@
         <v>1169</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -12991,7 +12988,7 @@
         <v>1171</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -13002,7 +12999,7 @@
         <v>1173</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -13013,7 +13010,7 @@
         <v>1175</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -13024,7 +13021,7 @@
         <v>1177</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -13035,7 +13032,7 @@
         <v>1179</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -13046,7 +13043,7 @@
         <v>1181</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -13057,7 +13054,7 @@
         <v>1183</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -13068,7 +13065,7 @@
         <v>1185</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -13079,7 +13076,7 @@
         <v>1187</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -13090,7 +13087,7 @@
         <v>1189</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -13101,7 +13098,7 @@
         <v>1191</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -13112,7 +13109,7 @@
         <v>1193</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -13123,7 +13120,7 @@
         <v>1195</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -13134,7 +13131,7 @@
         <v>1197</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -13145,7 +13142,7 @@
         <v>1199</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -13156,7 +13153,7 @@
         <v>1201</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -13167,7 +13164,7 @@
         <v>1203</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -13178,7 +13175,7 @@
         <v>1205</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -13189,7 +13186,7 @@
         <v>1207</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -13200,7 +13197,7 @@
         <v>1209</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -13211,7 +13208,7 @@
         <v>1211</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -13222,7 +13219,7 @@
         <v>1213</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -13233,7 +13230,7 @@
         <v>1215</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -13244,7 +13241,7 @@
         <v>1217</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -13255,7 +13252,7 @@
         <v>1219</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -13266,7 +13263,7 @@
         <v>1221</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -13277,7 +13274,7 @@
         <v>1223</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -13288,7 +13285,7 @@
         <v>1225</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -13299,7 +13296,7 @@
         <v>1225</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -13310,7 +13307,7 @@
         <v>1228</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -13321,7 +13318,7 @@
         <v>1230</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -13332,7 +13329,7 @@
         <v>1232</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -13343,7 +13340,7 @@
         <v>1234</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -13354,7 +13351,7 @@
         <v>1236</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -13365,7 +13362,7 @@
         <v>1238</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -13376,7 +13373,7 @@
         <v>1240</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -13387,7 +13384,7 @@
         <v>1242</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -13398,7 +13395,7 @@
         <v>1244</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -13409,7 +13406,7 @@
         <v>1246</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -13420,7 +13417,7 @@
         <v>1248</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -13431,7 +13428,7 @@
         <v>1250</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -13442,7 +13439,7 @@
         <v>1252</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -13453,7 +13450,7 @@
         <v>1254</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -13464,7 +13461,7 @@
         <v>1256</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -13475,7 +13472,7 @@
         <v>1258</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -13486,7 +13483,7 @@
         <v>1260</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -13497,7 +13494,7 @@
         <v>1262</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -13508,7 +13505,7 @@
         <v>1264</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -13519,7 +13516,7 @@
         <v>1266</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -13530,7 +13527,7 @@
         <v>1268</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -13541,7 +13538,7 @@
         <v>1270</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -13552,7 +13549,7 @@
         <v>1272</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -13563,7 +13560,7 @@
         <v>1274</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -13574,7 +13571,7 @@
         <v>1276</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -13585,7 +13582,7 @@
         <v>1278</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -13596,7 +13593,7 @@
         <v>1280</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -13607,7 +13604,7 @@
         <v>1282</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -13618,7 +13615,7 @@
         <v>1284</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -13629,7 +13626,7 @@
         <v>1286</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -13640,7 +13637,7 @@
         <v>1288</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -13651,7 +13648,7 @@
         <v>1290</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -13662,7 +13659,7 @@
         <v>1292</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -13673,7 +13670,7 @@
         <v>1294</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -13684,7 +13681,7 @@
         <v>1296</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -13695,7 +13692,7 @@
         <v>1298</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -13706,7 +13703,7 @@
         <v>1300</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -13717,7 +13714,7 @@
         <v>1302</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -13728,7 +13725,7 @@
         <v>1304</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -13739,7 +13736,7 @@
         <v>1306</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -13750,7 +13747,7 @@
         <v>1308</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -13761,7 +13758,7 @@
         <v>1310</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -13772,7 +13769,7 @@
         <v>1312</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
@@ -13783,7 +13780,7 @@
         <v>1314</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -13794,7 +13791,7 @@
         <v>1316</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
@@ -13805,7 +13802,7 @@
         <v>1318</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
@@ -13816,7 +13813,7 @@
         <v>1320</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
@@ -13827,7 +13824,7 @@
         <v>1322</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
@@ -13838,7 +13835,7 @@
         <v>1324</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
@@ -13849,7 +13846,7 @@
         <v>1326</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -13860,7 +13857,7 @@
         <v>1328</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
@@ -13871,7 +13868,7 @@
         <v>1330</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
@@ -13882,7 +13879,7 @@
         <v>1332</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
@@ -13893,7 +13890,7 @@
         <v>1334</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -13904,7 +13901,7 @@
         <v>1336</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -13915,7 +13912,7 @@
         <v>1338</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -13926,7 +13923,7 @@
         <v>1340</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
@@ -13937,7 +13934,7 @@
         <v>1342</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -13948,7 +13945,7 @@
         <v>1344</v>
       </c>
       <c r="C677" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -13959,7 +13956,7 @@
         <v>1346</v>
       </c>
       <c r="C678" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -13970,7 +13967,7 @@
         <v>1348</v>
       </c>
       <c r="C679" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -13981,7 +13978,7 @@
         <v>1350</v>
       </c>
       <c r="C680" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -13992,7 +13989,7 @@
         <v>1352</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -14003,7 +14000,7 @@
         <v>1354</v>
       </c>
       <c r="C682" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -14014,7 +14011,7 @@
         <v>1356</v>
       </c>
       <c r="C683" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -14025,7 +14022,7 @@
         <v>1358</v>
       </c>
       <c r="C684" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -14036,7 +14033,7 @@
         <v>1360</v>
       </c>
       <c r="C685" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -14047,7 +14044,7 @@
         <v>1362</v>
       </c>
       <c r="C686" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -14058,7 +14055,7 @@
         <v>1364</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -14069,7 +14066,7 @@
         <v>1366</v>
       </c>
       <c r="C688" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
@@ -14080,7 +14077,7 @@
         <v>1368</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
@@ -14091,7 +14088,7 @@
         <v>1370</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
@@ -14102,7 +14099,7 @@
         <v>1372</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
@@ -14113,7 +14110,7 @@
         <v>1374</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
@@ -14124,7 +14121,7 @@
         <v>1376</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
@@ -14135,7 +14132,7 @@
         <v>1378</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
@@ -14146,7 +14143,7 @@
         <v>1380</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
@@ -14157,7 +14154,7 @@
         <v>1382</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
@@ -14168,7 +14165,7 @@
         <v>1384</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
@@ -14179,7 +14176,7 @@
         <v>1386</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
@@ -14190,7 +14187,7 @@
         <v>1388</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
@@ -14201,7 +14198,7 @@
         <v>1390</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
@@ -14212,7 +14209,7 @@
         <v>1392</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
@@ -14223,7 +14220,7 @@
         <v>1394</v>
       </c>
       <c r="C702" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
@@ -14234,7 +14231,7 @@
         <v>1396</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
@@ -14245,7 +14242,7 @@
         <v>1398</v>
       </c>
       <c r="C704" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
@@ -14256,7 +14253,7 @@
         <v>1400</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
@@ -14267,7 +14264,7 @@
         <v>1402</v>
       </c>
       <c r="C706" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
@@ -14278,7 +14275,7 @@
         <v>1404</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
@@ -14289,7 +14286,7 @@
         <v>1406</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
@@ -14300,7 +14297,7 @@
         <v>1408</v>
       </c>
       <c r="C709" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
@@ -14311,7 +14308,7 @@
         <v>1410</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
@@ -14322,7 +14319,7 @@
         <v>1412</v>
       </c>
       <c r="C711" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
@@ -14333,7 +14330,7 @@
         <v>1414</v>
       </c>
       <c r="C712" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
@@ -14344,7 +14341,7 @@
         <v>1416</v>
       </c>
       <c r="C713" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
@@ -14355,7 +14352,7 @@
         <v>1418</v>
       </c>
       <c r="C714" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
@@ -14366,7 +14363,7 @@
         <v>1420</v>
       </c>
       <c r="C715" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
@@ -14377,7 +14374,7 @@
         <v>1422</v>
       </c>
       <c r="C716" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
@@ -14388,7 +14385,7 @@
         <v>1424</v>
       </c>
       <c r="C717" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
@@ -14399,7 +14396,7 @@
         <v>1426</v>
       </c>
       <c r="C718" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
@@ -14410,7 +14407,7 @@
         <v>1428</v>
       </c>
       <c r="C719" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
@@ -14421,7 +14418,7 @@
         <v>1430</v>
       </c>
       <c r="C720" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
@@ -14432,7 +14429,7 @@
         <v>1432</v>
       </c>
       <c r="C721" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
@@ -14443,7 +14440,7 @@
         <v>1434</v>
       </c>
       <c r="C722" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
@@ -14454,7 +14451,7 @@
         <v>1436</v>
       </c>
       <c r="C723" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
@@ -14465,7 +14462,7 @@
         <v>1438</v>
       </c>
       <c r="C724" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
@@ -14476,7 +14473,7 @@
         <v>1440</v>
       </c>
       <c r="C725" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
@@ -14487,7 +14484,7 @@
         <v>1442</v>
       </c>
       <c r="C726" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
@@ -14498,7 +14495,7 @@
         <v>1444</v>
       </c>
       <c r="C727" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
@@ -14509,7 +14506,7 @@
         <v>1446</v>
       </c>
       <c r="C728" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
@@ -14520,7 +14517,7 @@
         <v>1448</v>
       </c>
       <c r="C729" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
@@ -14531,7 +14528,7 @@
         <v>1450</v>
       </c>
       <c r="C730" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
@@ -14542,7 +14539,7 @@
         <v>1452</v>
       </c>
       <c r="C731" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
@@ -14553,7 +14550,7 @@
         <v>1454</v>
       </c>
       <c r="C732" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
@@ -14564,7 +14561,7 @@
         <v>1456</v>
       </c>
       <c r="C733" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
@@ -14575,7 +14572,7 @@
         <v>1458</v>
       </c>
       <c r="C734" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
@@ -14586,7 +14583,7 @@
         <v>1460</v>
       </c>
       <c r="C735" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
@@ -14597,7 +14594,7 @@
         <v>1462</v>
       </c>
       <c r="C736" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
@@ -14608,7 +14605,7 @@
         <v>1464</v>
       </c>
       <c r="C737" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
@@ -14619,7 +14616,7 @@
         <v>1466</v>
       </c>
       <c r="C738" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
@@ -14630,7 +14627,7 @@
         <v>1468</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
@@ -14641,7 +14638,7 @@
         <v>1470</v>
       </c>
       <c r="C740" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
@@ -14652,7 +14649,7 @@
         <v>1472</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
@@ -14663,7 +14660,7 @@
         <v>1474</v>
       </c>
       <c r="C742" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
@@ -14674,7 +14671,7 @@
         <v>1476</v>
       </c>
       <c r="C743" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
@@ -14685,7 +14682,7 @@
         <v>1478</v>
       </c>
       <c r="C744" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
@@ -14696,7 +14693,7 @@
         <v>1480</v>
       </c>
       <c r="C745" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
@@ -14707,7 +14704,7 @@
         <v>1482</v>
       </c>
       <c r="C746" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
@@ -14718,7 +14715,7 @@
         <v>1484</v>
       </c>
       <c r="C747" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
@@ -14729,7 +14726,7 @@
         <v>1486</v>
       </c>
       <c r="C748" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
@@ -14740,7 +14737,7 @@
         <v>1488</v>
       </c>
       <c r="C749" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
@@ -14751,7 +14748,7 @@
         <v>1490</v>
       </c>
       <c r="C750" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
@@ -14762,7 +14759,7 @@
         <v>1492</v>
       </c>
       <c r="C751" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
@@ -14773,7 +14770,7 @@
         <v>1494</v>
       </c>
       <c r="C752" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
@@ -14784,7 +14781,7 @@
         <v>1496</v>
       </c>
       <c r="C753" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
@@ -14795,7 +14792,7 @@
         <v>1498</v>
       </c>
       <c r="C754" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
@@ -14806,7 +14803,7 @@
         <v>1500</v>
       </c>
       <c r="C755" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
@@ -14817,7 +14814,7 @@
         <v>1502</v>
       </c>
       <c r="C756" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
@@ -14828,7 +14825,7 @@
         <v>1504</v>
       </c>
       <c r="C757" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
@@ -14839,7 +14836,7 @@
         <v>1506</v>
       </c>
       <c r="C758" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
@@ -14850,7 +14847,7 @@
         <v>1508</v>
       </c>
       <c r="C759" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
@@ -14861,7 +14858,7 @@
         <v>1510</v>
       </c>
       <c r="C760" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
@@ -14872,7 +14869,7 @@
         <v>1512</v>
       </c>
       <c r="C761" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
@@ -14883,7 +14880,7 @@
         <v>1514</v>
       </c>
       <c r="C762" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
@@ -14894,7 +14891,7 @@
         <v>1516</v>
       </c>
       <c r="C763" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
@@ -14905,7 +14902,7 @@
         <v>1518</v>
       </c>
       <c r="C764" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
@@ -14916,7 +14913,7 @@
         <v>1520</v>
       </c>
       <c r="C765" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
@@ -14927,7 +14924,7 @@
         <v>1522</v>
       </c>
       <c r="C766" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
@@ -14938,7 +14935,7 @@
         <v>1524</v>
       </c>
       <c r="C767" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
@@ -14949,7 +14946,7 @@
         <v>1526</v>
       </c>
       <c r="C768" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
@@ -14960,7 +14957,7 @@
         <v>1528</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
@@ -14971,7 +14968,7 @@
         <v>1530</v>
       </c>
       <c r="C770" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
@@ -14982,7 +14979,7 @@
         <v>1532</v>
       </c>
       <c r="C771" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
@@ -14993,7 +14990,7 @@
         <v>1534</v>
       </c>
       <c r="C772" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
@@ -15004,7 +15001,7 @@
         <v>1536</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -15015,7 +15012,7 @@
         <v>1538</v>
       </c>
       <c r="C774" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
@@ -15026,7 +15023,7 @@
         <v>1540</v>
       </c>
       <c r="C775" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -15037,7 +15034,7 @@
         <v>1542</v>
       </c>
       <c r="C776" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -15048,7 +15045,7 @@
         <v>1544</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -15059,7 +15056,7 @@
         <v>1546</v>
       </c>
       <c r="C778" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
@@ -15070,7 +15067,7 @@
         <v>1548</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
@@ -15081,7 +15078,7 @@
         <v>1550</v>
       </c>
       <c r="C780" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
@@ -15092,7 +15089,7 @@
         <v>1552</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -15103,7 +15100,7 @@
         <v>1554</v>
       </c>
       <c r="C782" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
@@ -15114,7 +15111,7 @@
         <v>1556</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
@@ -15125,7 +15122,7 @@
         <v>1558</v>
       </c>
       <c r="C784" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
@@ -15136,7 +15133,7 @@
         <v>1560</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
@@ -15147,7 +15144,7 @@
         <v>1562</v>
       </c>
       <c r="C786" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
@@ -15158,7 +15155,7 @@
         <v>1564</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
@@ -15169,7 +15166,7 @@
         <v>1566</v>
       </c>
       <c r="C788" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
@@ -15180,7 +15177,7 @@
         <v>1568</v>
       </c>
       <c r="C789" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -15191,7 +15188,7 @@
         <v>1570</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
@@ -15202,7 +15199,7 @@
         <v>1572</v>
       </c>
       <c r="C791" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
@@ -15213,7 +15210,7 @@
         <v>1574</v>
       </c>
       <c r="C792" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
@@ -15224,7 +15221,7 @@
         <v>1576</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
@@ -15235,7 +15232,7 @@
         <v>1578</v>
       </c>
       <c r="C794" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
@@ -15246,7 +15243,7 @@
         <v>1580</v>
       </c>
       <c r="C795" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
@@ -15257,7 +15254,7 @@
         <v>1582</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
@@ -15268,7 +15265,7 @@
         <v>1584</v>
       </c>
       <c r="C797" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
@@ -15279,7 +15276,7 @@
         <v>1586</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
@@ -15290,7 +15287,7 @@
         <v>1588</v>
       </c>
       <c r="C799" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
@@ -15301,7 +15298,7 @@
         <v>1590</v>
       </c>
       <c r="C800" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
@@ -15312,7 +15309,7 @@
         <v>1592</v>
       </c>
       <c r="C801" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
@@ -15323,7 +15320,7 @@
         <v>1594</v>
       </c>
       <c r="C802" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
@@ -15334,7 +15331,7 @@
         <v>1596</v>
       </c>
       <c r="C803" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
@@ -15345,7 +15342,7 @@
         <v>1598</v>
       </c>
       <c r="C804" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
@@ -15356,7 +15353,7 @@
         <v>1600</v>
       </c>
       <c r="C805" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
@@ -15367,7 +15364,7 @@
         <v>1602</v>
       </c>
       <c r="C806" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
@@ -15378,7 +15375,7 @@
         <v>1604</v>
       </c>
       <c r="C807" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
@@ -15389,7 +15386,7 @@
         <v>1606</v>
       </c>
       <c r="C808" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
@@ -15400,7 +15397,7 @@
         <v>1608</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
@@ -15411,7 +15408,7 @@
         <v>1610</v>
       </c>
       <c r="C810" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
@@ -15422,7 +15419,7 @@
         <v>1612</v>
       </c>
       <c r="C811" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
@@ -15433,7 +15430,7 @@
         <v>1614</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
@@ -15444,7 +15441,7 @@
         <v>1616</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
@@ -15455,7 +15452,7 @@
         <v>1618</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
@@ -15466,7 +15463,7 @@
         <v>1620</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
@@ -15477,7 +15474,7 @@
         <v>1622</v>
       </c>
       <c r="C816" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
@@ -15488,7 +15485,7 @@
         <v>1624</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
@@ -15499,7 +15496,7 @@
         <v>1626</v>
       </c>
       <c r="C818" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
@@ -15510,7 +15507,7 @@
         <v>1628</v>
       </c>
       <c r="C819" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
@@ -15521,7 +15518,7 @@
         <v>1630</v>
       </c>
       <c r="C820" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
@@ -15532,7 +15529,7 @@
         <v>1632</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
@@ -15543,7 +15540,7 @@
         <v>1634</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
@@ -15554,7 +15551,7 @@
         <v>1636</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
@@ -15565,7 +15562,7 @@
         <v>1638</v>
       </c>
       <c r="C824" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
@@ -15576,7 +15573,7 @@
         <v>1640</v>
       </c>
       <c r="C825" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
@@ -15587,7 +15584,7 @@
         <v>1642</v>
       </c>
       <c r="C826" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
@@ -15598,7 +15595,7 @@
         <v>1644</v>
       </c>
       <c r="C827" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
@@ -15609,7 +15606,7 @@
         <v>1646</v>
       </c>
       <c r="C828" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
@@ -15620,7 +15617,7 @@
         <v>1648</v>
       </c>
       <c r="C829" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
@@ -15631,7 +15628,7 @@
         <v>1650</v>
       </c>
       <c r="C830" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
@@ -15642,7 +15639,7 @@
         <v>1652</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
@@ -15653,7 +15650,7 @@
         <v>1654</v>
       </c>
       <c r="C832" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
@@ -15664,7 +15661,7 @@
         <v>1656</v>
       </c>
       <c r="C833" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
@@ -15675,7 +15672,7 @@
         <v>1658</v>
       </c>
       <c r="C834" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
@@ -15686,7 +15683,7 @@
         <v>1660</v>
       </c>
       <c r="C835" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
@@ -15697,7 +15694,7 @@
         <v>1662</v>
       </c>
       <c r="C836" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
@@ -15708,7 +15705,7 @@
         <v>1664</v>
       </c>
       <c r="C837" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
@@ -15719,7 +15716,7 @@
         <v>1666</v>
       </c>
       <c r="C838" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
@@ -15730,7 +15727,7 @@
         <v>1668</v>
       </c>
       <c r="C839" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
@@ -15741,7 +15738,7 @@
         <v>1670</v>
       </c>
       <c r="C840" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
@@ -15752,7 +15749,7 @@
         <v>1672</v>
       </c>
       <c r="C841" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
@@ -15763,7 +15760,7 @@
         <v>1674</v>
       </c>
       <c r="C842" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
@@ -15774,7 +15771,7 @@
         <v>1676</v>
       </c>
       <c r="C843" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.25">
@@ -15785,7 +15782,7 @@
         <v>1678</v>
       </c>
       <c r="C844" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
@@ -15796,7 +15793,7 @@
         <v>1680</v>
       </c>
       <c r="C845" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
@@ -15807,7 +15804,7 @@
         <v>1682</v>
       </c>
       <c r="C846" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
@@ -15818,7 +15815,7 @@
         <v>1684</v>
       </c>
       <c r="C847" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
@@ -15829,7 +15826,7 @@
         <v>1686</v>
       </c>
       <c r="C848" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
@@ -15840,7 +15837,7 @@
         <v>1688</v>
       </c>
       <c r="C849" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
@@ -15851,7 +15848,7 @@
         <v>1690</v>
       </c>
       <c r="C850" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
@@ -15862,7 +15859,7 @@
         <v>1692</v>
       </c>
       <c r="C851" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
@@ -15873,7 +15870,7 @@
         <v>1694</v>
       </c>
       <c r="C852" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.25">
@@ -15884,7 +15881,7 @@
         <v>1696</v>
       </c>
       <c r="C853" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.25">
@@ -15895,7 +15892,7 @@
         <v>1698</v>
       </c>
       <c r="C854" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.25">
@@ -15906,7 +15903,7 @@
         <v>1700</v>
       </c>
       <c r="C855" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.25">
@@ -15917,7 +15914,7 @@
         <v>1702</v>
       </c>
       <c r="C856" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
@@ -15928,7 +15925,7 @@
         <v>1704</v>
       </c>
       <c r="C857" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
@@ -15939,7 +15936,7 @@
         <v>1706</v>
       </c>
       <c r="C858" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.25">
@@ -15950,7 +15947,7 @@
         <v>1708</v>
       </c>
       <c r="C859" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
@@ -15961,7 +15958,7 @@
         <v>1710</v>
       </c>
       <c r="C860" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
@@ -15972,7 +15969,7 @@
         <v>1712</v>
       </c>
       <c r="C861" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
@@ -15983,7 +15980,7 @@
         <v>1714</v>
       </c>
       <c r="C862" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
@@ -15994,7 +15991,7 @@
         <v>1716</v>
       </c>
       <c r="C863" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
@@ -16005,7 +16002,7 @@
         <v>1718</v>
       </c>
       <c r="C864" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
@@ -16016,7 +16013,7 @@
         <v>1720</v>
       </c>
       <c r="C865" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
@@ -16027,7 +16024,7 @@
         <v>1722</v>
       </c>
       <c r="C866" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
@@ -16038,7 +16035,7 @@
         <v>1724</v>
       </c>
       <c r="C867" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
@@ -16049,7 +16046,7 @@
         <v>1726</v>
       </c>
       <c r="C868" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.25">
@@ -16060,7 +16057,7 @@
         <v>1728</v>
       </c>
       <c r="C869" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.25">
@@ -16071,7 +16068,7 @@
         <v>1730</v>
       </c>
       <c r="C870" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.25">
@@ -16082,7 +16079,7 @@
         <v>1732</v>
       </c>
       <c r="C871" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
@@ -16093,7 +16090,7 @@
         <v>1734</v>
       </c>
       <c r="C872" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
@@ -16104,7 +16101,7 @@
         <v>1736</v>
       </c>
       <c r="C873" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
@@ -16115,7 +16112,7 @@
         <v>1738</v>
       </c>
       <c r="C874" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
@@ -16126,7 +16123,7 @@
         <v>1740</v>
       </c>
       <c r="C875" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.25">
@@ -16137,7 +16134,7 @@
         <v>1742</v>
       </c>
       <c r="C876" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.25">
@@ -16148,7 +16145,7 @@
         <v>1744</v>
       </c>
       <c r="C877" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.25">
@@ -16159,7 +16156,7 @@
         <v>1746</v>
       </c>
       <c r="C878" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.25">
@@ -16170,7 +16167,7 @@
         <v>1748</v>
       </c>
       <c r="C879" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.25">
@@ -16181,7 +16178,7 @@
         <v>1750</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.25">
@@ -16192,7 +16189,7 @@
         <v>1752</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.25">
@@ -16203,7 +16200,7 @@
         <v>1754</v>
       </c>
       <c r="C882" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.25">
@@ -16214,7 +16211,7 @@
         <v>1756</v>
       </c>
       <c r="C883" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.25">
@@ -16225,7 +16222,7 @@
         <v>1758</v>
       </c>
       <c r="C884" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.25">
@@ -16236,7 +16233,7 @@
         <v>1760</v>
       </c>
       <c r="C885" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.25">
@@ -16247,7 +16244,7 @@
         <v>1762</v>
       </c>
       <c r="C886" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.25">
@@ -16258,7 +16255,7 @@
         <v>1764</v>
       </c>
       <c r="C887" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.25">
@@ -16269,7 +16266,7 @@
         <v>1766</v>
       </c>
       <c r="C888" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.25">
@@ -16280,7 +16277,7 @@
         <v>1768</v>
       </c>
       <c r="C889" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.25">
@@ -16291,7 +16288,7 @@
         <v>1770</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.25">
@@ -16302,7 +16299,7 @@
         <v>1772</v>
       </c>
       <c r="C891" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
@@ -16313,7 +16310,7 @@
         <v>1774</v>
       </c>
       <c r="C892" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.25">
@@ -16324,7 +16321,7 @@
         <v>1776</v>
       </c>
       <c r="C893" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
@@ -16335,7 +16332,7 @@
         <v>1778</v>
       </c>
       <c r="C894" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.25">
@@ -16346,7 +16343,7 @@
         <v>1780</v>
       </c>
       <c r="C895" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.25">
@@ -16357,7 +16354,7 @@
         <v>1782</v>
       </c>
       <c r="C896" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
@@ -16368,7 +16365,7 @@
         <v>1784</v>
       </c>
       <c r="C897" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
@@ -16379,7 +16376,7 @@
         <v>1786</v>
       </c>
       <c r="C898" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
@@ -16390,7 +16387,7 @@
         <v>1788</v>
       </c>
       <c r="C899" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.25">
@@ -16401,7 +16398,7 @@
         <v>1790</v>
       </c>
       <c r="C900" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.25">
@@ -16412,7 +16409,7 @@
         <v>1792</v>
       </c>
       <c r="C901" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.25">
@@ -16423,7 +16420,7 @@
         <v>1794</v>
       </c>
       <c r="C902" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.25">
@@ -16434,7 +16431,7 @@
         <v>1796</v>
       </c>
       <c r="C903" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
@@ -16445,7 +16442,7 @@
         <v>1798</v>
       </c>
       <c r="C904" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.25">
@@ -16456,7 +16453,7 @@
         <v>1800</v>
       </c>
       <c r="C905" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.25">
@@ -16467,7 +16464,7 @@
         <v>1802</v>
       </c>
       <c r="C906" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.25">
@@ -16478,7 +16475,7 @@
         <v>1804</v>
       </c>
       <c r="C907" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.25">
@@ -16489,7 +16486,7 @@
         <v>1806</v>
       </c>
       <c r="C908" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.25">
@@ -16500,7 +16497,7 @@
         <v>1808</v>
       </c>
       <c r="C909" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.25">
@@ -16511,7 +16508,7 @@
         <v>1810</v>
       </c>
       <c r="C910" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.25">
@@ -16522,7 +16519,7 @@
         <v>1812</v>
       </c>
       <c r="C911" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.25">
@@ -16533,7 +16530,7 @@
         <v>1814</v>
       </c>
       <c r="C912" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.25">
@@ -16544,7 +16541,7 @@
         <v>1816</v>
       </c>
       <c r="C913" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.25">
@@ -16555,7 +16552,7 @@
         <v>1818</v>
       </c>
       <c r="C914" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.25">
@@ -16566,7 +16563,7 @@
         <v>1820</v>
       </c>
       <c r="C915" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.25">
@@ -16577,7 +16574,7 @@
         <v>1822</v>
       </c>
       <c r="C916" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.25">
@@ -16588,7 +16585,7 @@
         <v>1824</v>
       </c>
       <c r="C917" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.25">
@@ -16599,7 +16596,7 @@
         <v>1826</v>
       </c>
       <c r="C918" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.25">
@@ -16610,7 +16607,7 @@
         <v>1828</v>
       </c>
       <c r="C919" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.25">
@@ -16621,7 +16618,7 @@
         <v>1830</v>
       </c>
       <c r="C920" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.25">
@@ -16632,7 +16629,7 @@
         <v>1832</v>
       </c>
       <c r="C921" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.25">
@@ -16643,7 +16640,7 @@
         <v>1834</v>
       </c>
       <c r="C922" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.25">
@@ -16654,7 +16651,7 @@
         <v>1836</v>
       </c>
       <c r="C923" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.25">
@@ -16665,7 +16662,7 @@
         <v>1838</v>
       </c>
       <c r="C924" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.25">
@@ -16676,7 +16673,7 @@
         <v>1840</v>
       </c>
       <c r="C925" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.25">
@@ -16687,7 +16684,7 @@
         <v>1842</v>
       </c>
       <c r="C926" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.25">
@@ -16698,7 +16695,7 @@
         <v>1844</v>
       </c>
       <c r="C927" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.25">
@@ -16709,7 +16706,7 @@
         <v>1846</v>
       </c>
       <c r="C928" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.25">
@@ -16720,7 +16717,7 @@
         <v>1848</v>
       </c>
       <c r="C929" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.25">
@@ -16731,7 +16728,7 @@
         <v>1850</v>
       </c>
       <c r="C930" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.25">
@@ -16742,7 +16739,7 @@
         <v>1852</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.25">
@@ -16753,7 +16750,7 @@
         <v>1854</v>
       </c>
       <c r="C932" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.25">
@@ -16764,7 +16761,7 @@
         <v>1856</v>
       </c>
       <c r="C933" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.25">
@@ -16775,7 +16772,7 @@
         <v>1856</v>
       </c>
       <c r="C934" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.25">
@@ -16786,7 +16783,7 @@
         <v>1859</v>
       </c>
       <c r="C935" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.25">
@@ -16797,7 +16794,7 @@
         <v>1861</v>
       </c>
       <c r="C936" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.25">
@@ -16808,7 +16805,7 @@
         <v>1863</v>
       </c>
       <c r="C937" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.25">
@@ -16819,7 +16816,7 @@
         <v>1865</v>
       </c>
       <c r="C938" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.25">
@@ -16830,7 +16827,7 @@
         <v>1867</v>
       </c>
       <c r="C939" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.25">
@@ -16841,7 +16838,7 @@
         <v>1869</v>
       </c>
       <c r="C940" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.25">
@@ -16852,7 +16849,7 @@
         <v>1871</v>
       </c>
       <c r="C941" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.25">
@@ -16863,7 +16860,7 @@
         <v>1873</v>
       </c>
       <c r="C942" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.25">
@@ -16874,7 +16871,7 @@
         <v>1875</v>
       </c>
       <c r="C943" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.25">
@@ -16885,7 +16882,7 @@
         <v>1877</v>
       </c>
       <c r="C944" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.25">
@@ -16896,7 +16893,7 @@
         <v>1879</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.25">
@@ -16907,7 +16904,7 @@
         <v>1881</v>
       </c>
       <c r="C946" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.25">
@@ -16918,7 +16915,7 @@
         <v>1883</v>
       </c>
       <c r="C947" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.25">
@@ -16929,7 +16926,7 @@
         <v>1885</v>
       </c>
       <c r="C948" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.25">
@@ -16940,7 +16937,7 @@
         <v>1887</v>
       </c>
       <c r="C949" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.25">
@@ -16951,7 +16948,7 @@
         <v>1889</v>
       </c>
       <c r="C950" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.25">
@@ -16962,7 +16959,7 @@
         <v>1891</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.25">
@@ -16973,7 +16970,7 @@
         <v>1893</v>
       </c>
       <c r="C952" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.25">
@@ -16984,7 +16981,7 @@
         <v>1895</v>
       </c>
       <c r="C953" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.25">
@@ -16995,7 +16992,7 @@
         <v>1897</v>
       </c>
       <c r="C954" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.25">
@@ -17006,7 +17003,7 @@
         <v>1899</v>
       </c>
       <c r="C955" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.25">
@@ -17017,7 +17014,7 @@
         <v>1901</v>
       </c>
       <c r="C956" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.25">
@@ -17028,7 +17025,7 @@
         <v>1903</v>
       </c>
       <c r="C957" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
@@ -17039,7 +17036,7 @@
         <v>1905</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.25">
@@ -17050,7 +17047,7 @@
         <v>1907</v>
       </c>
       <c r="C959" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.25">
@@ -17061,7 +17058,7 @@
         <v>1909</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.25">
@@ -17072,7 +17069,7 @@
         <v>1911</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.25">
@@ -17083,7 +17080,7 @@
         <v>1913</v>
       </c>
       <c r="C962" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.25">
@@ -17094,7 +17091,7 @@
         <v>1915</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.25">
@@ -17105,7 +17102,7 @@
         <v>1917</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.25">
@@ -17116,7 +17113,7 @@
         <v>1917</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.25">
@@ -17127,7 +17124,7 @@
         <v>1920</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.25">
@@ -17138,7 +17135,7 @@
         <v>1922</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.25">
@@ -17149,7 +17146,7 @@
         <v>1924</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.25">
@@ -17160,7 +17157,7 @@
         <v>1926</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.25">
@@ -17171,7 +17168,7 @@
         <v>1928</v>
       </c>
       <c r="C970" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.25">
@@ -17182,7 +17179,7 @@
         <v>1930</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.25">
@@ -17193,7 +17190,7 @@
         <v>1932</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.25">
@@ -17204,7 +17201,7 @@
         <v>1934</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
@@ -17215,7 +17212,7 @@
         <v>1936</v>
       </c>
       <c r="C974" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
@@ -17226,7 +17223,7 @@
         <v>1938</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.25">
@@ -17237,7 +17234,7 @@
         <v>1940</v>
       </c>
       <c r="C976" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.25">
@@ -17248,7 +17245,7 @@
         <v>1942</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.25">
@@ -17259,7 +17256,7 @@
         <v>1944</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.25">
@@ -17270,7 +17267,7 @@
         <v>1946</v>
       </c>
       <c r="C979" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.25">
@@ -17281,7 +17278,7 @@
         <v>1948</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
@@ -17292,7 +17289,7 @@
         <v>1950</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.25">
@@ -17303,7 +17300,7 @@
         <v>1952</v>
       </c>
       <c r="C982" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.25">
@@ -17314,7 +17311,7 @@
         <v>1954</v>
       </c>
       <c r="C983" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.25">
@@ -17325,7 +17322,7 @@
         <v>1956</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
@@ -17336,7 +17333,7 @@
         <v>1958</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
@@ -17347,7 +17344,7 @@
         <v>1960</v>
       </c>
       <c r="C986" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.25">
@@ -17358,7 +17355,7 @@
         <v>1962</v>
       </c>
       <c r="C987" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.25">
@@ -17369,7 +17366,7 @@
         <v>1964</v>
       </c>
       <c r="C988" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
@@ -17380,7 +17377,7 @@
         <v>1966</v>
       </c>
       <c r="C989" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
@@ -17391,7 +17388,7 @@
         <v>1968</v>
       </c>
       <c r="C990" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
@@ -17402,7 +17399,7 @@
         <v>1970</v>
       </c>
       <c r="C991" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.25">
@@ -17413,7 +17410,7 @@
         <v>1972</v>
       </c>
       <c r="C992" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.25">
@@ -17424,7 +17421,7 @@
         <v>1974</v>
       </c>
       <c r="C993" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.25">
@@ -17435,7 +17432,7 @@
         <v>1976</v>
       </c>
       <c r="C994" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.25">
@@ -17446,7 +17443,7 @@
         <v>1978</v>
       </c>
       <c r="C995" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.25">
@@ -17457,7 +17454,7 @@
         <v>1980</v>
       </c>
       <c r="C996" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.25">
@@ -17468,7 +17465,7 @@
         <v>1982</v>
       </c>
       <c r="C997" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.25">
@@ -17479,7 +17476,7 @@
         <v>1984</v>
       </c>
       <c r="C998" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.25">
@@ -17490,7 +17487,7 @@
         <v>1986</v>
       </c>
       <c r="C999" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1000" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17501,7 +17498,7 @@
         <v>1988</v>
       </c>
       <c r="C1000" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
   </sheetData>
